--- a/data/DAT_170223_Déclaration obligatoire rougeole_Suisse_1999-2017_Swissinfo.xlsx
+++ b/data/DAT_170223_Déclaration obligatoire rougeole_Suisse_1999-2017_Swissinfo.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MT\1_EPI\_Erreger\15 MMR\01 Rougeole\Flambées\CH 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyendu/swissinfo/2017_02_23_measle/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27620"/>
   </bookViews>
   <sheets>
     <sheet name="Suisse" sheetId="1" r:id="rId1"/>
     <sheet name="par canton" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -217,14 +223,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -232,50 +238,50 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -284,7 +290,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -292,20 +298,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -314,7 +320,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -322,7 +328,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -331,14 +337,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -347,42 +353,42 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -391,20 +397,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,12 +421,6 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +459,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -486,6 +474,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,429 +775,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1999</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f>B6*100/B$25</f>
         <v>0.56923076923076921</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>7123537</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f>B6*1000000/D6</f>
         <v>5.1940489675283503</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>2000</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>19</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f t="shared" ref="C7:C25" si="0">B7*100/B$25</f>
         <v>0.29230769230769232</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>7164444</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" ref="E7:E24" si="1">B7*1000000/D7</f>
         <v>2.6519852761777467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>2001</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>63</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>7204055</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>8.7450748224437493</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>2002</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>52</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>7261210</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>7.161340878448633</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>2003</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>605</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>9.3076923076923084</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>7317873</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>82.674296206015057</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>2004</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>40</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>7364148</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>5.4317213613849153</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>2005</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>69</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>1.0615384615384615</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>7415102</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>9.305333898306456</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>2006</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>74</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>1.1384615384615384</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>7459128</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>9.9207306805835742</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>2007</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>1096</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>16.861538461538462</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>7508739</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>145.96325694633947</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>2008</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>2215</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>34.07692307692308</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>7593494</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>291.69707647098949</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>2009</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>1080</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>16.615384615384617</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>7701856</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>140.22594034476884</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>2010</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>83</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>1.2769230769230768</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>7785806</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>10.660424880866541</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>2011</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>662</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>10.184615384615384</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>7870134</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>84.115467411355382</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>2012</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>63</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>7954662</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>7.919883962385831</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>2013</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>176</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>2.7076923076923078</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>8039060</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>21.893106905533731</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>2014</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>23</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>0.35384615384615387</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>8139631</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>2.8256809184593257</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>2015</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>35</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>8237666</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
         <v>4.2487762917311773</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>2016</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>71</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>1.0923076923076922</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>8325194</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>8.5283297902727551</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>2017</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>37</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <f t="shared" si="0"/>
         <v>0.56923076923076921</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>8325194</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f t="shared" si="1"/>
         <v>4.4443408766210135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="19">
         <f>SUM(B6:B24)</f>
         <v>6500</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1206,113 +1212,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="1:21" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+    </row>
+    <row r="5" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="28">
         <v>1999</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="28">
         <v>2000</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="28">
         <v>2001</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="28">
         <v>2002</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="28">
         <v>2003</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>2004</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="28">
         <v>2005</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="28">
         <v>2006</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="28">
         <v>2007</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="28">
         <v>2008</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="28">
         <v>2009</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="28">
         <v>2010</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="28">
         <v>2011</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="28">
         <v>2012</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="28">
         <v>2013</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="28">
         <v>2014</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="28">
         <v>2015</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="28">
         <v>2016</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="28">
         <v>2017</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -1372,12 +1378,12 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="26">
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -1437,12 +1443,12 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" s="32">
+      <c r="U7" s="26">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B8">
@@ -1502,12 +1508,12 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="26">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -1567,12 +1573,12 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="26">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B10">
@@ -1632,12 +1638,12 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="26">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B11">
@@ -1697,12 +1703,12 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="32">
+      <c r="U11" s="26">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -1762,12 +1768,12 @@
       <c r="T12">
         <v>11</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="26">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B13">
@@ -1827,12 +1833,12 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" s="32">
+      <c r="U13" s="26">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -1892,12 +1898,12 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="26">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -1957,12 +1963,12 @@
       <c r="T15">
         <v>5</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="26">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -2022,12 +2028,12 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="32">
+      <c r="U16" s="26">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -2087,12 +2093,12 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="32">
+      <c r="U17" s="26">
         <v>1115</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -2152,12 +2158,12 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" s="32">
+      <c r="U18" s="26">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B19">
@@ -2217,12 +2223,12 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="26">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B20">
@@ -2282,12 +2288,12 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B21">
@@ -2347,12 +2353,12 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="32">
+      <c r="U21" s="26">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B22">
@@ -2412,12 +2418,12 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="26">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B23">
@@ -2477,12 +2483,12 @@
       <c r="T23">
         <v>3</v>
       </c>
-      <c r="U23" s="32">
+      <c r="U23" s="26">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B24">
@@ -2542,12 +2548,12 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="26">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -2607,12 +2613,12 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" s="32">
+      <c r="U25" s="26">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
@@ -2672,12 +2678,12 @@
       <c r="T26">
         <v>12</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="26">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B27">
@@ -2737,12 +2743,12 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="26">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B28">
@@ -2802,12 +2808,12 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="26">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B29">
@@ -2867,12 +2873,12 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="26">
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B30">
@@ -2932,137 +2938,137 @@
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="32">
+      <c r="U30" s="26">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="33">
         <v>19</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="33">
         <v>5</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="33">
         <v>11</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="33">
         <v>15</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="33">
         <v>56</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="33">
         <v>10</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="33">
         <v>4</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="33">
         <v>9</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="33">
         <v>141</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="33">
         <v>195</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="33">
         <v>97</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="33">
         <v>11</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="33">
         <v>52</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="33">
         <v>6</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="33">
         <v>10</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="33">
         <v>8</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="33">
         <v>8</v>
       </c>
-      <c r="S31" s="39">
+      <c r="S31" s="33">
         <v>5</v>
       </c>
-      <c r="T31" s="39">
-        <v>0</v>
-      </c>
-      <c r="U31" s="38">
+      <c r="T31" s="33">
+        <v>0</v>
+      </c>
+      <c r="U31" s="32">
         <v>662</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="31">
         <v>36</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="31">
         <v>15</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="31">
         <v>56</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="31">
         <v>46</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="31">
         <v>600</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="31">
         <v>40</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="31">
         <v>69</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="31">
         <v>73</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="31">
         <v>1092</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="31">
         <v>2199</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="31">
         <v>1063</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="31">
         <v>82</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="31">
         <v>659</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="31">
         <v>63</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="31">
         <v>176</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="31">
         <v>23</v>
       </c>
-      <c r="R32" s="37">
+      <c r="R32" s="31">
         <v>35</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="31">
         <v>71</v>
       </c>
-      <c r="T32" s="37">
+      <c r="T32" s="31">
         <v>36</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="27">
         <v>6434</v>
       </c>
     </row>
